--- a/data/trans_dic/P1423-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1423-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -618,11 +639,14 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -647,32 +671,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>2,53%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>1,54%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>3,06%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>1,33%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>1,17%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>2,03%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
         </is>
       </c>
     </row>
@@ -700,39 +739,54 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,6; 5,26</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>1,36; 4,27</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0,64; 3,32</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>1,64; 5,26</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3,47; 10,93</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>0,69; 2,25</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>0,63; 2,06</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="M5" s="2" t="inlineStr">
         <is>
           <t>1,17; 3,24</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,24; 6,4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -757,32 +811,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>3,53%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>4,39%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>2,42%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6,51%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>2,66%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>3,68%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>1,78%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,71%</t>
         </is>
       </c>
     </row>
@@ -810,39 +879,54 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>1,28; 5,0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>2,24; 5,35</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>2,84; 6,26</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>1,34; 3,96</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3,65; 9,31</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>1,87; 3,63</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>2,68; 4,92</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr">
+      <c r="M7" s="2" t="inlineStr">
         <is>
           <t>1,17; 2,62</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 6,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -867,32 +951,47 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>5,83%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>9,78%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>6,8%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7,17%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>4,46%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>6,87%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>4,62%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6,58%</t>
         </is>
       </c>
     </row>
@@ -920,39 +1019,54 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>4,09; 8,61</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>4,09; 7,92</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>7,72; 12,32</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>5,28; 8,84</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5,13; 9,21</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>3,39; 5,68</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>5,59; 8,46</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
+      <c r="M9" s="2" t="inlineStr">
         <is>
           <t>3,49; 5,76</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 8,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -977,32 +1091,47 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,55%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>11,21%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>12,52%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>11,71%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12,58%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>7,09%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>8,48%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>7,88%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8,68%</t>
         </is>
       </c>
     </row>
@@ -1030,39 +1159,54 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>2,22; 8,66</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>8,67; 14,11</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>9,89; 15,44</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>9,43; 14,83</t>
         </is>
       </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10,22; 14,54</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>5,62; 8,75</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>6,86; 10,19</t>
         </is>
       </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="M11" s="2" t="inlineStr">
         <is>
           <t>6,35; 9,53</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 10,92</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1087,32 +1231,47 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>9,59%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>12,89%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>18,45%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>17,83%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17,58%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>9,33%</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>12,94%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="M12" s="2" t="inlineStr">
         <is>
           <t>12,34%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13,53%</t>
         </is>
       </c>
     </row>
@@ -1140,39 +1299,54 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>7,42; 12,2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>9,74; 16,55</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>14,94; 22,58</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>14,24; 20,95</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15,19; 19,89</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>7,44; 11,49</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>10,75; 15,35</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="M13" s="2" t="inlineStr">
         <is>
           <t>10,28; 14,77</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>11,95; 15,38</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>8,8%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>12,94%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>8,23%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,09; 8,35</t>
+          <t>2,99; 7,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 8,61</t>
+          <t>2,92; 8,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,18</t>
+          <t>1,42; 5,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,57; 13,31</t>
+          <t>3,15; 6,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,43; 22,57</t>
+          <t>8,81; 15,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,23; 18,9</t>
+          <t>15,48; 24,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,11; 10,44</t>
+          <t>13,6; 21,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,7; 15,59</t>
+          <t>4,04; 16,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,2; 12,72</t>
+          <t>6,9; 11,24</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>10,34; 15,89</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8,28; 13,1</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 10,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>15,15%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>8,69%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14,25%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>11,57%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13,3%</t>
         </is>
       </c>
     </row>
@@ -1345,69 +1564,225 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>3,99; 10,99</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 11,92</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3,84; 8,85</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6,54; 11,88</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6,6; 13,74</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15,24; 23,28</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11,19; 19,27</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13,72; 18,8</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>6,41; 11,68</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>11,5; 17,34</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>9,12; 14,4</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>11,54; 15,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3,26%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>11,41%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10,19%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>11,13%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,54; 3,71</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>3,43; 4,98</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2,71; 3,9</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4,46; 6,63</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>6,57; 8,42</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>10,44; 12,49</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>9,12; 11,26</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>9,31; 12,38</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>4,78; 5,92</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>7,23; 8,51</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>6,26; 7,51</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 9,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1423-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1423-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,17</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,2</t>
+          <t>0,22; 2,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,61</t>
+          <t>0,25; 2,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,26</t>
+          <t>0,69; 5,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,27</t>
+          <t>1,39; 4,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,32</t>
+          <t>0,62; 3,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,26</t>
+          <t>1,68; 5,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 10,93</t>
+          <t>3,27; 10,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,25</t>
+          <t>0,73; 2,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,06</t>
+          <t>0,58; 2,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,24</t>
+          <t>1,16; 3,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,4</t>
+          <t>2,29; 6,57</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,04</t>
+          <t>1,13; 2,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,7</t>
+          <t>1,86; 4,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,22</t>
+          <t>0,51; 2,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,0</t>
+          <t>1,15; 4,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,35</t>
+          <t>2,29; 5,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,26</t>
+          <t>2,82; 6,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,96</t>
+          <t>1,38; 3,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 9,31</t>
+          <t>3,68; 9,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,63</t>
+          <t>1,93; 3,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,92</t>
+          <t>2,59; 4,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,62</t>
+          <t>1,16; 2,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 6,36</t>
+          <t>3,17; 6,51</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,39</t>
+          <t>1,84; 4,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,88</t>
+          <t>2,44; 5,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,8</t>
+          <t>1,52; 4,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 8,61</t>
+          <t>4,14; 8,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 7,92</t>
+          <t>4,18; 7,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 12,32</t>
+          <t>7,65; 12,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,84</t>
+          <t>4,99; 8,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 9,21</t>
+          <t>5,3; 9,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 5,68</t>
+          <t>3,43; 5,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 8,46</t>
+          <t>5,48; 8,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,76</t>
+          <t>3,56; 5,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,2; 8,18</t>
+          <t>5,22; 8,07</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,76</t>
+          <t>1,78; 4,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 6,5</t>
+          <t>3,0; 6,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 5,84</t>
+          <t>2,72; 5,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 8,66</t>
+          <t>2,28; 8,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,67; 14,11</t>
+          <t>8,67; 13,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,89; 15,44</t>
+          <t>10,03; 15,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,43; 14,83</t>
+          <t>9,16; 14,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,22; 14,54</t>
+          <t>10,21; 14,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,75</t>
+          <t>5,61; 8,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,19</t>
+          <t>6,87; 10,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 9,53</t>
+          <t>6,56; 9,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 10,92</t>
+          <t>5,01; 10,77</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,32</t>
+          <t>3,62; 8,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,8; 10,04</t>
+          <t>5,22; 10,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 9,24</t>
+          <t>4,52; 9,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,42; 12,2</t>
+          <t>7,51; 12,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,74; 16,55</t>
+          <t>9,64; 16,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,94; 22,58</t>
+          <t>14,73; 22,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,24; 20,95</t>
+          <t>14,52; 21,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,19; 19,89</t>
+          <t>15,07; 19,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 11,49</t>
+          <t>7,49; 11,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,75; 15,35</t>
+          <t>10,81; 15,45</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,28; 14,77</t>
+          <t>10,03; 14,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,95; 15,38</t>
+          <t>11,81; 15,11</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 7,89</t>
+          <t>3,2; 8,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,92; 8,97</t>
+          <t>2,98; 8,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,04</t>
+          <t>1,44; 5,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,15; 6,8</t>
+          <t>3,13; 6,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,81; 15,51</t>
+          <t>8,7; 15,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,48; 24,13</t>
+          <t>15,5; 23,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,6; 21,54</t>
+          <t>13,72; 21,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,04; 16,49</t>
+          <t>4,26; 16,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,9; 11,24</t>
+          <t>6,85; 11,08</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,34; 15,89</t>
+          <t>10,15; 15,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,28; 13,1</t>
+          <t>8,5; 13,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,6; 10,94</t>
+          <t>4,43; 11,16</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,99; 10,99</t>
+          <t>4,29; 10,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,95; 11,92</t>
+          <t>3,79; 11,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 8,85</t>
+          <t>3,79; 9,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,54; 11,88</t>
+          <t>6,59; 12,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,6; 13,74</t>
+          <t>6,85; 13,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,24; 23,28</t>
+          <t>14,93; 23,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,19; 19,27</t>
+          <t>11,46; 19,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,72; 18,8</t>
+          <t>13,59; 18,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 11,68</t>
+          <t>6,43; 11,52</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11,5; 17,34</t>
+          <t>11,45; 17,37</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,12; 14,4</t>
+          <t>9,1; 14,43</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,54; 15,44</t>
+          <t>11,61; 15,56</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,71</t>
+          <t>2,52; 3,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,43; 4,98</t>
+          <t>3,48; 4,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,9</t>
+          <t>2,71; 3,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,46; 6,63</t>
+          <t>4,52; 6,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,57; 8,42</t>
+          <t>6,71; 8,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,44; 12,49</t>
+          <t>10,24; 12,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,12; 11,26</t>
+          <t>9,24; 11,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,31; 12,38</t>
+          <t>8,97; 12,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,78; 5,92</t>
+          <t>4,88; 5,99</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,23; 8,51</t>
+          <t>7,23; 8,59</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6,26; 7,51</t>
+          <t>6,14; 7,43</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,28; 9,33</t>
+          <t>7,44; 9,39</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3699</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4392</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8919</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11818</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12125</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19579</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12770</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10333</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16517</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>28498</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4750</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>993; 9110</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1060; 11298</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2745; 23844</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6476; 20488</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2686; 13982</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6635; 21620</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10252; 34275</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6996; 20646</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5129; 19412</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9471; 25779</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16354; 46821</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>14121</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20902</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6902</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10773</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>22101</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26779</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13644</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>33339</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>36222</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>47681</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20546</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>44112</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8327; 21948</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12790; 31168</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2988; 14783</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4885; 20615</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>14328; 33165</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17229; 38992</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7782; 22364</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>18820; 46930</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>26272; 48947</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>33645; 63834</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13395; 30201</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>29643; 60871</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19035</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26222</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>16452</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>31742</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>40193</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>69373</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>44951</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>42465</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>59228</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>95595</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>61404</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>74207</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11753; 29229</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16634; 39068</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10154; 27141</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>22181; 44323</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>28810; 53826</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>54250; 85886</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>33007; 57642</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31370; 55489</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>45629; 75833</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>76207; 115035</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>47381; 77030</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>58916; 91045</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15592</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27355</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>26074</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>49301</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>57790</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>76887</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>75994</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>89648</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>73382</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>104242</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>102068</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>138949</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9261; 25782</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18408; 40273</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>17592; 38454</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>20226; 76148</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>44700; 72162</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>61625; 95887</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>59434; 94918</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>72808; 104763</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>58081; 90540</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>84457; 128428</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>85023; 124966</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>80129; 172457</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>21672</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>30885</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>31679</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>53801</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>52077</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>82609</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>88606</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>96299</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>73749</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>113493</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>120285</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>150100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>14013; 31153</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>22420; 43451</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>21589; 45266</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>42138; 68721</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>38961; 67399</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>65953; 100921</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>72158; 107861</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>82553; 108383</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>59257; 91011</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>94803; 135555</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>97815; 140652</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>130981; 167623</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>15257</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>16529</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9649</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>17459</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>40645</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>69374</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>65247</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>62958</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>55902</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>85904</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>74896</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>80417</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>9354; 23549</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>9241; 27402</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4813; 17236</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>11510; 24961</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>29828; 51965</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>54865; 83874</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>51829; 80630</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>25898; 100270</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>43507; 70403</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>67372; 103751</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>60520; 95285</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>43220; 109018</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>14745</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>17088</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>15423</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>25372</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>32498</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>73948</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>60627</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>68840</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>47243</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>91036</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>76050</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>94212</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>8996; 22815</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>9477; 27877</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>9740; 23430</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>18642; 34608</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>22887; 45431</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>58082; 91566</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>45842; 78734</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>57855; 80170</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>34958; 62656</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>73115; 110959</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>59821; 94854</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>82276; 110247</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>101374</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>142680</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>110570</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>197367</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>257122</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>405603</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>361195</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>413127</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>358496</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>548283</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>471765</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>610494</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>82495; 121211</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>119409; 169596</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>92138; 133487</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>156248; 231927</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>226831; 288464</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>364180; 441185</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>327383; 399455</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>333079; 458157</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>324573; 398476</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>504880; 599533</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>425952; 515234</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>533889; 673135</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>